--- a/texstudio/freeg.xlsx
+++ b/texstudio/freeg.xlsx
@@ -5,23 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos\Universidad\2023-2024\TFG\RNAsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos\Universidad\2023-2024\TFG\texstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524CD054-860F-4B4B-A427-A8BFDAD5E3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87E6453-CC1B-4082-8EAA-F6FC13F70799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22725" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17070" yWindow="0" windowWidth="11730" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos Transcritos Obtenidos" sheetId="2" r:id="rId1"/>
     <sheet name="Free Energy" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Free Energy'!$A$2:$U$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>PCDH15-221</t>
   </si>
@@ -159,6 +175,9 @@
   </si>
   <si>
     <t>R3H domain containing like</t>
+  </si>
+  <si>
+    <t>db_rndc_rscale</t>
   </si>
 </sst>
 </file>
@@ -214,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -222,6 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3539C142-9805-4156-A064-3BEE10EB7B53}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
@@ -699,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,8 +1241,77 @@
       <c r="I9">
         <v>758</v>
       </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <f>K3*K6/K7</f>
+        <v>-0.62297501284875079</v>
+      </c>
+      <c r="L9">
+        <v>578</v>
+      </c>
+      <c r="M9">
+        <v>1307</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9">
+        <f>O3*O6/O7</f>
+        <v>-0.83505855652315497</v>
+      </c>
+      <c r="P9">
+        <v>608</v>
+      </c>
+      <c r="Q9">
+        <v>1356</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9">
+        <f>S3*S6/S7</f>
+        <v>-0.81521920315428653</v>
+      </c>
+      <c r="T9">
+        <v>602</v>
+      </c>
+      <c r="U9">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <f>C3*C8/C9</f>
+        <v>-0.30604905494975143</v>
+      </c>
+      <c r="D10">
+        <v>264</v>
+      </c>
+      <c r="E10">
+        <v>580</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f>G3*G8/G9</f>
+        <v>-0.45220400127702853</v>
+      </c>
+      <c r="H10">
+        <v>334</v>
+      </c>
+      <c r="I10">
+        <v>758</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:U2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
